--- a/Assets/Gifts4u-order.xlsx
+++ b/Assets/Gifts4u-order.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeLyoko\Gifts4U\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD566250-F217-4D80-B732-A4D061BF2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D09649-06B7-4278-897B-140B7206F840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Bedrijfsnaam</t>
   </si>
@@ -85,24 +86,6 @@
   </si>
   <si>
     <t>XXXXXX</t>
-  </si>
-  <si>
-    <t>Bedrukkingstext of logo</t>
-  </si>
-  <si>
-    <t>Bedrukkingsplaats</t>
-  </si>
-  <si>
-    <t>Bedrukkingskleur</t>
-  </si>
-  <si>
-    <t>Leveringstermijn</t>
-  </si>
-  <si>
-    <t>leveringsplaats</t>
-  </si>
-  <si>
-    <t>Prijsofferte nummer</t>
   </si>
   <si>
     <t>Op alle diensten en producten zijn onze algemene voorwaarden van toepassing. Zie ommezijde / of zie link</t>
@@ -113,6 +96,31 @@
   </si>
   <si>
     <t xml:space="preserve">  OMSCHRIJVING                                                                                                                         AANTAL                                  EENHEIDSPRIJS                     TOTAAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelieve deze orderbevestiging, ondertekend terug te zenden via email, zodat wij deze bestelling in gang kunnen zetten.  
+Veel plezier met uw aankoop </t>
+  </si>
+  <si>
+    <t>Bedrukkingstext of logo:</t>
+  </si>
+  <si>
+    <t>Bedrukkingsplaats:</t>
+  </si>
+  <si>
+    <t>Bedrukkingskleur:</t>
+  </si>
+  <si>
+    <t>Leveringstermijn:                                              indien uw akkoord op de digitale drukproef in ons bezit is op</t>
+  </si>
+  <si>
+    <t>Leveringsplaats:</t>
+  </si>
+  <si>
+    <t>Leveringsvoorwaarden:</t>
+  </si>
+  <si>
+    <t>Prijsofferte nummer:</t>
   </si>
 </sst>
 </file>
@@ -122,11 +130,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="\+\ \3\2\ 0\ 00\ 00\ 00\ 00"/>
-    <numFmt numFmtId="171" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="\+\ \3\2\ 0\ 00\ 00\ 00\ 00"/>
+    <numFmt numFmtId="168" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -270,6 +278,12 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -409,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -520,13 +534,13 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -545,28 +559,76 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,63 +641,25 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -709,13 +733,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2020982</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>127468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2020982</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>493228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -764,13 +788,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>119904</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>97211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1801065</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>521074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -838,13 +862,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>105616</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>138673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>105616</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>504433</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -893,13 +917,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>828676</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>828676</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>486785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1273,10 +1297,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1388,8 +1412,8 @@
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1458,12 +1482,12 @@
         <v>10</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="59">
+      <c r="D17" s="77">
         <f ca="1">INDIRECT(ADDRESS(ROW()+3,6))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+        <v>70</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1477,34 +1501,38 @@
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="B19" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="72">
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="52">
+        <v>2</v>
+      </c>
+      <c r="E20" s="54">
+        <v>35</v>
+      </c>
+      <c r="F20" s="60">
         <f t="shared" ref="F20:F30" si="0">D20*E20</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="75">
+      <c r="B21" s="74"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1512,11 +1540,11 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="72">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1524,11 +1552,11 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="75">
+      <c r="B23" s="74"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1536,11 +1564,11 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="72">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1548,11 +1576,11 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="75">
+      <c r="B25" s="74"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1560,11 +1588,11 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="72">
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1572,11 +1600,11 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="75">
+      <c r="B27" s="74"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1584,11 +1612,11 @@
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="72">
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1596,11 +1624,11 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="75">
+      <c r="B29" s="74"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1608,11 +1636,11 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="76">
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1622,47 +1650,47 @@
       <c r="A31" s="5"/>
       <c r="B31" s="45"/>
       <c r="C31" s="46"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="65">
         <f>SUM(F20:F30)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
       <c r="E32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="61">
         <v>0</v>
       </c>
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="73">
+      <c r="F33" s="61">
         <f>F31-F32</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="16"/>
       <c r="E34" s="19" t="s">
         <v>4</v>
@@ -1673,54 +1701,54 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="73">
+      <c r="F35" s="61">
         <f>F33*F34</f>
         <v>0</v>
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="61">
         <v>0</v>
       </c>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="50"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="74">
+      <c r="F37" s="62">
         <f>F33+F35+F36</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1734,39 +1762,41 @@
     </row>
     <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+      <c r="B40" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
-      <c r="B41" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
+      <c r="B41" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="27"/>
       <c r="B42" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
+        <v>24</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="35"/>
       <c r="B43" s="47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
@@ -1777,7 +1807,7 @@
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="36"/>
       <c r="B44" s="47" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
@@ -1786,59 +1816,75 @@
       <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="B45" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+      <c r="B46" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="81"/>
+    <row r="48" spans="1:7" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+    </row>
+    <row r="49" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="84"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B51:F51"/>
+  <mergeCells count="21">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B52:F52"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B32:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B20:C20"/>
@@ -1849,19 +1895,22 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B42:F42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70F9701-0B9B-42FA-99CF-8398930FAF1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>